--- a/data/pca/factorExposure/factorExposure_2019-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1185310801726092</v>
+        <v>-0.07178537776793038</v>
       </c>
       <c r="C2">
-        <v>0.01699689208187149</v>
+        <v>-0.03090359736255034</v>
       </c>
       <c r="D2">
-        <v>0.05629086282655643</v>
+        <v>-0.02205784695134179</v>
       </c>
       <c r="E2">
-        <v>0.1259075982244313</v>
+        <v>-0.04258598630606797</v>
       </c>
       <c r="F2">
-        <v>-0.05804966589632029</v>
+        <v>0.1401365142163061</v>
       </c>
       <c r="G2">
-        <v>-0.09159986256997962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1063142228223997</v>
+      </c>
+      <c r="H2">
+        <v>-0.05836838671770599</v>
+      </c>
+      <c r="I2">
+        <v>0.03969197498873642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2107079167925706</v>
+        <v>-0.1618054908047367</v>
       </c>
       <c r="C3">
-        <v>0.1621036393048713</v>
+        <v>-0.1063842187117281</v>
       </c>
       <c r="D3">
-        <v>-0.02797507688293561</v>
+        <v>0.003432412855271288</v>
       </c>
       <c r="E3">
-        <v>0.3291300896274125</v>
+        <v>0.002611553100235019</v>
       </c>
       <c r="F3">
-        <v>0.05493827250095913</v>
+        <v>0.3747370868322005</v>
       </c>
       <c r="G3">
-        <v>-0.06791156421600464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08764957800408679</v>
+      </c>
+      <c r="H3">
+        <v>-0.2703659458028044</v>
+      </c>
+      <c r="I3">
+        <v>0.2278040370076621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0948373090090915</v>
+        <v>-0.07226021914624089</v>
       </c>
       <c r="C4">
-        <v>0.05054338259087215</v>
+        <v>-0.04808155827041695</v>
       </c>
       <c r="D4">
-        <v>0.02697009175189505</v>
+        <v>0.01380952964978933</v>
       </c>
       <c r="E4">
-        <v>0.06983627341133712</v>
+        <v>-0.04136376280721074</v>
       </c>
       <c r="F4">
-        <v>-9.387765795404068e-05</v>
+        <v>0.08070160866589489</v>
       </c>
       <c r="G4">
-        <v>-0.04109341835029199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04488041768551171</v>
+      </c>
+      <c r="H4">
+        <v>-0.02469960524729392</v>
+      </c>
+      <c r="I4">
+        <v>0.03286981409995979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01824442485712001</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01358572030377533</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005635180714329282</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005249884130127527</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003963857863237913</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02076030880023471</v>
+      </c>
+      <c r="H6">
+        <v>-0.0001490230235283924</v>
+      </c>
+      <c r="I6">
+        <v>-0.01372561644876109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03942983123310283</v>
+        <v>-0.03407004582393358</v>
       </c>
       <c r="C7">
-        <v>0.01443766284265313</v>
+        <v>-0.0158393780791602</v>
       </c>
       <c r="D7">
-        <v>0.03461780929246656</v>
+        <v>0.03582268055615099</v>
       </c>
       <c r="E7">
-        <v>0.075776541339364</v>
+        <v>-0.02911041211207744</v>
       </c>
       <c r="F7">
-        <v>0.04127918537671172</v>
+        <v>0.0545511848395453</v>
       </c>
       <c r="G7">
-        <v>0.03894398476994937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006251187237768208</v>
+      </c>
+      <c r="H7">
+        <v>-0.04474641356501924</v>
+      </c>
+      <c r="I7">
+        <v>0.005778213149337109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04413245521887387</v>
+        <v>-0.02893565799960823</v>
       </c>
       <c r="C8">
-        <v>0.05719681522731509</v>
+        <v>-0.05020303341186202</v>
       </c>
       <c r="D8">
-        <v>0.004609658505080284</v>
+        <v>0.01254519754563381</v>
       </c>
       <c r="E8">
-        <v>0.06951867504795316</v>
+        <v>-0.02121246114060219</v>
       </c>
       <c r="F8">
-        <v>0.009776058570323062</v>
+        <v>0.07076806245473258</v>
       </c>
       <c r="G8">
-        <v>-0.01164775288366459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02018634212230101</v>
+      </c>
+      <c r="H8">
+        <v>-0.04179719008617655</v>
+      </c>
+      <c r="I8">
+        <v>0.04082091998252292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08213583054576777</v>
+        <v>-0.06074550345355052</v>
       </c>
       <c r="C9">
-        <v>0.04440710521370252</v>
+        <v>-0.04236903097609467</v>
       </c>
       <c r="D9">
-        <v>0.03521589591033541</v>
+        <v>0.01760123960538782</v>
       </c>
       <c r="E9">
-        <v>0.05550979825861087</v>
+        <v>-0.03591252001197318</v>
       </c>
       <c r="F9">
-        <v>0.01489278082441981</v>
+        <v>0.07982163821142742</v>
       </c>
       <c r="G9">
-        <v>-0.04772064631052027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04310707410037722</v>
+      </c>
+      <c r="H9">
+        <v>-0.02331579136366249</v>
+      </c>
+      <c r="I9">
+        <v>0.01663769953686409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01945467707935715</v>
+        <v>-0.03374430432680277</v>
       </c>
       <c r="C10">
-        <v>-0.159652381955017</v>
+        <v>0.1535248500643736</v>
       </c>
       <c r="D10">
-        <v>-0.03249467640092537</v>
+        <v>-0.008040386166455381</v>
       </c>
       <c r="E10">
-        <v>0.07415446849046591</v>
+        <v>0.04066628174659311</v>
       </c>
       <c r="F10">
-        <v>-0.016859491263107</v>
+        <v>0.06930581264367355</v>
       </c>
       <c r="G10">
-        <v>-0.002019425359120904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02625258902767498</v>
+      </c>
+      <c r="H10">
+        <v>-0.001913006637354595</v>
+      </c>
+      <c r="I10">
+        <v>0.1071822890891325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05829852377460411</v>
+        <v>-0.04846381358586026</v>
       </c>
       <c r="C11">
-        <v>0.01693353237072328</v>
+        <v>-0.03147263141844499</v>
       </c>
       <c r="D11">
-        <v>-0.005561247342885064</v>
+        <v>-0.006405147541832966</v>
       </c>
       <c r="E11">
-        <v>0.04382481259421047</v>
+        <v>-0.009981354665211356</v>
       </c>
       <c r="F11">
-        <v>-0.009839583008135864</v>
+        <v>0.04001161306885905</v>
       </c>
       <c r="G11">
-        <v>0.005043314628414573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007792291154701957</v>
+      </c>
+      <c r="H11">
+        <v>-2.227866229817132e-06</v>
+      </c>
+      <c r="I11">
+        <v>-0.009121775263216109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04402242033889601</v>
+        <v>-0.04509519542717309</v>
       </c>
       <c r="C12">
-        <v>0.02041411177271068</v>
+        <v>-0.02816781458739638</v>
       </c>
       <c r="D12">
-        <v>-0.003802173060946911</v>
+        <v>0.004785859231991073</v>
       </c>
       <c r="E12">
-        <v>0.02748470463948947</v>
+        <v>-0.01108244225433609</v>
       </c>
       <c r="F12">
-        <v>0.009214715834909027</v>
+        <v>0.01445686570263341</v>
       </c>
       <c r="G12">
-        <v>-0.001087628096034966</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0004284856957881978</v>
+      </c>
+      <c r="H12">
+        <v>-0.003612515368040377</v>
+      </c>
+      <c r="I12">
+        <v>-0.007493184327545844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06253764256859433</v>
+        <v>-0.04096263689551899</v>
       </c>
       <c r="C13">
-        <v>0.03097764056929017</v>
+        <v>-0.02683971446314882</v>
       </c>
       <c r="D13">
-        <v>-0.005415263501765888</v>
+        <v>-0.01522637920679679</v>
       </c>
       <c r="E13">
-        <v>0.1093935400735421</v>
+        <v>-0.009277800648041226</v>
       </c>
       <c r="F13">
-        <v>-0.007256127510285597</v>
+        <v>0.104708298061368</v>
       </c>
       <c r="G13">
-        <v>-0.01072056433718855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02403624543016662</v>
+      </c>
+      <c r="H13">
+        <v>-0.04258434874126363</v>
+      </c>
+      <c r="I13">
+        <v>0.01664559303346898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03433722421732831</v>
+        <v>-0.02835772928451383</v>
       </c>
       <c r="C14">
-        <v>0.02345921056658568</v>
+        <v>-0.01940553088064307</v>
       </c>
       <c r="D14">
-        <v>0.02582271648693758</v>
+        <v>0.005207103485393193</v>
       </c>
       <c r="E14">
-        <v>0.0299594745523314</v>
+        <v>-0.0267137564146809</v>
       </c>
       <c r="F14">
-        <v>-0.01950589062903781</v>
+        <v>0.03991726485214333</v>
       </c>
       <c r="G14">
-        <v>0.01616158389733715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02401726562915863</v>
+      </c>
+      <c r="H14">
+        <v>-0.05313354961055403</v>
+      </c>
+      <c r="I14">
+        <v>0.008774261797186954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04704475000681434</v>
+        <v>-0.04309477237742311</v>
       </c>
       <c r="C16">
-        <v>0.02781436292344905</v>
+        <v>-0.03709684772952521</v>
       </c>
       <c r="D16">
-        <v>-0.007122550644900752</v>
+        <v>-0.0009916437555454538</v>
       </c>
       <c r="E16">
-        <v>0.0346740639617291</v>
+        <v>-0.007950620844747153</v>
       </c>
       <c r="F16">
-        <v>0.003208099471596546</v>
+        <v>0.0359028549505346</v>
       </c>
       <c r="G16">
-        <v>0.008130819939348204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004068319603359094</v>
+      </c>
+      <c r="H16">
+        <v>-0.006300378686222113</v>
+      </c>
+      <c r="I16">
+        <v>-0.007222810452022072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05344044613629011</v>
+        <v>-0.0470708933476215</v>
       </c>
       <c r="C19">
-        <v>0.04856116637171101</v>
+        <v>-0.04474447885692591</v>
       </c>
       <c r="D19">
-        <v>-0.0002999915598609989</v>
+        <v>-0.00156595993979462</v>
       </c>
       <c r="E19">
-        <v>0.07738965425284861</v>
+        <v>-0.0228830147981751</v>
       </c>
       <c r="F19">
-        <v>0.002988121637975161</v>
+        <v>0.08226654367924206</v>
       </c>
       <c r="G19">
-        <v>0.03192321538694746</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.005945685562657328</v>
+      </c>
+      <c r="H19">
+        <v>-0.07995611987033276</v>
+      </c>
+      <c r="I19">
+        <v>0.03809794262225015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03477839414076608</v>
+        <v>-0.01738003611481539</v>
       </c>
       <c r="C20">
-        <v>0.04353907510094762</v>
+        <v>-0.02869182556185115</v>
       </c>
       <c r="D20">
-        <v>0.01404098539582046</v>
+        <v>0.006169240295105708</v>
       </c>
       <c r="E20">
-        <v>0.06614795489072747</v>
+        <v>-0.0214565715156849</v>
       </c>
       <c r="F20">
-        <v>0.007948514222131053</v>
+        <v>0.06772075077383206</v>
       </c>
       <c r="G20">
-        <v>0.01374218389940247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01234781010618394</v>
+      </c>
+      <c r="H20">
+        <v>-0.06860345454470275</v>
+      </c>
+      <c r="I20">
+        <v>0.03096741381497274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03480268642665402</v>
+        <v>-0.02745530050393922</v>
       </c>
       <c r="C21">
-        <v>0.03199667923995778</v>
+        <v>-0.02919753319557716</v>
       </c>
       <c r="D21">
-        <v>0.004087826586671183</v>
+        <v>0.01268186343629237</v>
       </c>
       <c r="E21">
-        <v>0.1089552963800256</v>
+        <v>-0.009523388391211628</v>
       </c>
       <c r="F21">
-        <v>-0.03145584212753919</v>
+        <v>0.08051436175610779</v>
       </c>
       <c r="G21">
-        <v>-0.03925189947573918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03869981540974901</v>
+      </c>
+      <c r="H21">
+        <v>-0.02721079299552215</v>
+      </c>
+      <c r="I21">
+        <v>-0.01149945029812402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05062470358497605</v>
+        <v>-0.04129580115625926</v>
       </c>
       <c r="C24">
-        <v>0.0249637255937462</v>
+        <v>-0.03069986018366736</v>
       </c>
       <c r="D24">
-        <v>-0.001301496523490918</v>
+        <v>-0.0002944253637434305</v>
       </c>
       <c r="E24">
-        <v>0.04376088987443418</v>
+        <v>-0.0113810013404348</v>
       </c>
       <c r="F24">
-        <v>0.009215012226791696</v>
+        <v>0.03787512407032407</v>
       </c>
       <c r="G24">
-        <v>0.0006272524053507328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0008622263611968267</v>
+      </c>
+      <c r="H24">
+        <v>-0.00276335964346192</v>
+      </c>
+      <c r="I24">
+        <v>-0.008301070768098434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05181331126989493</v>
+        <v>-0.04595197570039857</v>
       </c>
       <c r="C25">
-        <v>0.01593987451922796</v>
+        <v>-0.02770479608478359</v>
       </c>
       <c r="D25">
-        <v>-0.002201768699858051</v>
+        <v>-0.001387895191517256</v>
       </c>
       <c r="E25">
-        <v>0.0418718258078714</v>
+        <v>-0.009790847441292582</v>
       </c>
       <c r="F25">
-        <v>-0.001742219113749715</v>
+        <v>0.04268869382479521</v>
       </c>
       <c r="G25">
-        <v>0.001613032746169119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002648336725481712</v>
+      </c>
+      <c r="H25">
+        <v>0.001351653849365897</v>
+      </c>
+      <c r="I25">
+        <v>-0.01137980494942428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02079679903898455</v>
+        <v>-0.01709621865232867</v>
       </c>
       <c r="C26">
-        <v>0.03125771557523694</v>
+        <v>-0.0255866159218248</v>
       </c>
       <c r="D26">
-        <v>0.005479418395959518</v>
+        <v>-0.004468467920107288</v>
       </c>
       <c r="E26">
-        <v>0.03577812278171891</v>
+        <v>-0.002627016965326679</v>
       </c>
       <c r="F26">
-        <v>-0.02986634519440571</v>
+        <v>0.04663592130875879</v>
       </c>
       <c r="G26">
-        <v>0.008251605491560374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02208479767795017</v>
+      </c>
+      <c r="H26">
+        <v>-0.03350825205696659</v>
+      </c>
+      <c r="I26">
+        <v>-0.005425656794634942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1173146256360204</v>
+        <v>-0.07313142888852461</v>
       </c>
       <c r="C27">
-        <v>0.0378835232043221</v>
+        <v>-0.03109662900503764</v>
       </c>
       <c r="D27">
-        <v>0.02089298682043968</v>
+        <v>0.004691488498854172</v>
       </c>
       <c r="E27">
-        <v>0.09025106203890988</v>
+        <v>-0.03519265749401607</v>
       </c>
       <c r="F27">
-        <v>0.008018558617863559</v>
+        <v>0.06802913773157944</v>
       </c>
       <c r="G27">
-        <v>-0.01629092363691531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02105433491133358</v>
+      </c>
+      <c r="H27">
+        <v>-0.0115706394544509</v>
+      </c>
+      <c r="I27">
+        <v>0.02534117415736482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01741152013474042</v>
+        <v>-0.05139103288309315</v>
       </c>
       <c r="C28">
-        <v>-0.2400687650163943</v>
+        <v>0.2343414091867251</v>
       </c>
       <c r="D28">
-        <v>-0.03714672698326284</v>
+        <v>-0.001889971579416283</v>
       </c>
       <c r="E28">
-        <v>0.05387932677234113</v>
+        <v>0.06154211663602178</v>
       </c>
       <c r="F28">
-        <v>-0.02739874078764154</v>
+        <v>0.05913095852336186</v>
       </c>
       <c r="G28">
-        <v>-0.02245867406064196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02854618475515379</v>
+      </c>
+      <c r="H28">
+        <v>0.004403029719695132</v>
+      </c>
+      <c r="I28">
+        <v>0.1601461142248386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02382789401403154</v>
+        <v>-0.02372982802581866</v>
       </c>
       <c r="C29">
-        <v>0.02537210413569144</v>
+        <v>-0.01783844190089497</v>
       </c>
       <c r="D29">
-        <v>0.028492328834094</v>
+        <v>0.008688092454127662</v>
       </c>
       <c r="E29">
-        <v>0.03151843152331348</v>
+        <v>-0.02774838394658765</v>
       </c>
       <c r="F29">
-        <v>-0.0161837219709425</v>
+        <v>0.0353779392460516</v>
       </c>
       <c r="G29">
-        <v>0.002421132486447036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02792684513960185</v>
+      </c>
+      <c r="H29">
+        <v>-0.05218304759253565</v>
+      </c>
+      <c r="I29">
+        <v>0.002941229307383381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.112830172981585</v>
+        <v>-0.08819315355352927</v>
       </c>
       <c r="C30">
-        <v>0.02703389243461338</v>
+        <v>-0.05051122144481304</v>
       </c>
       <c r="D30">
-        <v>0.02974620136151374</v>
+        <v>-0.03756846726714224</v>
       </c>
       <c r="E30">
-        <v>0.1121957376129743</v>
+        <v>-0.0346787239004483</v>
       </c>
       <c r="F30">
-        <v>0.001038409930625697</v>
+        <v>0.1046114103767589</v>
       </c>
       <c r="G30">
-        <v>0.02003470633488835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01587587492586933</v>
+      </c>
+      <c r="H30">
+        <v>-0.0182651447921589</v>
+      </c>
+      <c r="I30">
+        <v>-0.01136162788742488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06782583360303829</v>
+        <v>-0.06272849622985036</v>
       </c>
       <c r="C31">
-        <v>0.01459534165046786</v>
+        <v>-0.02199139232683615</v>
       </c>
       <c r="D31">
-        <v>0.0154390143127919</v>
+        <v>-0.01158365997154632</v>
       </c>
       <c r="E31">
-        <v>-0.0195569332071114</v>
+        <v>-0.02323757298447836</v>
       </c>
       <c r="F31">
-        <v>-0.04633559652632855</v>
+        <v>0.002138601612283401</v>
       </c>
       <c r="G31">
-        <v>0.03367322960913315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04039857202019663</v>
+      </c>
+      <c r="H31">
+        <v>-0.03343770288008999</v>
+      </c>
+      <c r="I31">
+        <v>0.01194032474871173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06242469574831911</v>
+        <v>-0.04206956440481145</v>
       </c>
       <c r="C32">
-        <v>0.04627973454105461</v>
+        <v>-0.05262911955596514</v>
       </c>
       <c r="D32">
-        <v>0.01677413063193152</v>
+        <v>0.01498352614714674</v>
       </c>
       <c r="E32">
-        <v>0.1041741529056288</v>
+        <v>-0.03349258074416419</v>
       </c>
       <c r="F32">
-        <v>0.003481005435208195</v>
+        <v>0.08609095349808679</v>
       </c>
       <c r="G32">
-        <v>0.02056686436575552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01303289568734981</v>
+      </c>
+      <c r="H32">
+        <v>-0.03811836690872952</v>
+      </c>
+      <c r="I32">
+        <v>0.02583582213824046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.068268189286377</v>
+        <v>-0.05573732777779927</v>
       </c>
       <c r="C33">
-        <v>0.04877334705736557</v>
+        <v>-0.05237813678517558</v>
       </c>
       <c r="D33">
-        <v>0.01354427457022723</v>
+        <v>-0.01905454881039219</v>
       </c>
       <c r="E33">
-        <v>0.07475473729735099</v>
+        <v>-0.01544655240778144</v>
       </c>
       <c r="F33">
-        <v>-0.03869433952334377</v>
+        <v>0.07677914285565277</v>
       </c>
       <c r="G33">
-        <v>-0.01604329401047072</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03421335103595578</v>
+      </c>
+      <c r="H33">
+        <v>-0.03861909830186918</v>
+      </c>
+      <c r="I33">
+        <v>-0.006016947585081253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04749978750244923</v>
+        <v>-0.04361330482975111</v>
       </c>
       <c r="C34">
-        <v>0.02373429091099335</v>
+        <v>-0.03470754371712838</v>
       </c>
       <c r="D34">
-        <v>0.00451585178482147</v>
+        <v>0.004044541294434739</v>
       </c>
       <c r="E34">
-        <v>0.02785089723405652</v>
+        <v>-0.01839439076945456</v>
       </c>
       <c r="F34">
-        <v>0.005248203943682297</v>
+        <v>0.03104765743657166</v>
       </c>
       <c r="G34">
-        <v>0.008912316258036896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.001135530346690231</v>
+      </c>
+      <c r="H34">
+        <v>-0.009938342579127651</v>
+      </c>
+      <c r="I34">
+        <v>-0.006261164003906829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0143059963220454</v>
+        <v>-0.01602984919209658</v>
       </c>
       <c r="C36">
-        <v>0.001671440801116959</v>
+        <v>-0.002827113387583636</v>
       </c>
       <c r="D36">
-        <v>0.007250428636968988</v>
+        <v>0.004335374044711664</v>
       </c>
       <c r="E36">
-        <v>0.02239145889356955</v>
+        <v>-0.01081121244020079</v>
       </c>
       <c r="F36">
-        <v>-0.01627052571980165</v>
+        <v>0.02675100935927702</v>
       </c>
       <c r="G36">
-        <v>0.007749382692475511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02386398927042164</v>
+      </c>
+      <c r="H36">
+        <v>-0.03030264622314475</v>
+      </c>
+      <c r="I36">
+        <v>-0.004841536267050147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0502186628806278</v>
+        <v>-0.03436249198613582</v>
       </c>
       <c r="C38">
-        <v>0.01959161392693096</v>
+        <v>-0.01529249565909159</v>
       </c>
       <c r="D38">
-        <v>0.02757811629536029</v>
+        <v>0.003365154815393229</v>
       </c>
       <c r="E38">
-        <v>0.02314308804099043</v>
+        <v>-0.01392414806094458</v>
       </c>
       <c r="F38">
-        <v>0.02023272159943145</v>
+        <v>0.04711780459312929</v>
       </c>
       <c r="G38">
-        <v>-0.01903889281448023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02626563778613579</v>
+      </c>
+      <c r="H38">
+        <v>-0.01634406766134367</v>
+      </c>
+      <c r="I38">
+        <v>-0.01271352767267507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07405931423262713</v>
+        <v>-0.05546161415266412</v>
       </c>
       <c r="C39">
-        <v>0.02207439591828718</v>
+        <v>-0.0446073680072786</v>
       </c>
       <c r="D39">
-        <v>0.003443611011452678</v>
+        <v>-0.005240307931619983</v>
       </c>
       <c r="E39">
-        <v>0.04091720213877935</v>
+        <v>-0.01868227650739931</v>
       </c>
       <c r="F39">
-        <v>-0.01116324951056809</v>
+        <v>0.05576003644805098</v>
       </c>
       <c r="G39">
-        <v>-0.009799265004149084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01918013654042701</v>
+      </c>
+      <c r="H39">
+        <v>-0.002123339028795954</v>
+      </c>
+      <c r="I39">
+        <v>-0.03025467757560538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07598597412770824</v>
+        <v>-0.05511683580688503</v>
       </c>
       <c r="C40">
-        <v>0.04785011918388943</v>
+        <v>-0.04196896800651582</v>
       </c>
       <c r="D40">
-        <v>0.01100246416486157</v>
+        <v>-0.02096507196986187</v>
       </c>
       <c r="E40">
-        <v>0.1054254005341644</v>
+        <v>-0.02523541912200792</v>
       </c>
       <c r="F40">
-        <v>-0.002148220305787183</v>
+        <v>0.0945040670306192</v>
       </c>
       <c r="G40">
-        <v>-0.0334228701595665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02499312177831238</v>
+      </c>
+      <c r="H40">
+        <v>-0.04874974360312649</v>
+      </c>
+      <c r="I40">
+        <v>0.02713788221712779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002066495028912127</v>
+        <v>-0.004103282884598033</v>
       </c>
       <c r="C41">
-        <v>0.02235629656468681</v>
+        <v>-0.01247301371826587</v>
       </c>
       <c r="D41">
-        <v>0.02816983716474334</v>
+        <v>-0.0001254958574006504</v>
       </c>
       <c r="E41">
-        <v>0.01166996623490872</v>
+        <v>-0.01078495249939484</v>
       </c>
       <c r="F41">
-        <v>-0.03107681812132228</v>
+        <v>0.01299112928575487</v>
       </c>
       <c r="G41">
-        <v>-0.004405460365427319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03485610890577661</v>
+      </c>
+      <c r="H41">
+        <v>-0.03163823650896111</v>
+      </c>
+      <c r="I41">
+        <v>0.02471539105921423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1548691011896011</v>
+        <v>-0.2177107306034341</v>
       </c>
       <c r="C42">
-        <v>0.2312244878694885</v>
+        <v>-0.2856160520084584</v>
       </c>
       <c r="D42">
-        <v>-0.9202981228124349</v>
+        <v>-0.05007266713246182</v>
       </c>
       <c r="E42">
-        <v>-0.1030869263325921</v>
+        <v>0.9033955941065799</v>
       </c>
       <c r="F42">
-        <v>-0.07342237440531861</v>
+        <v>-0.1550127366535815</v>
       </c>
       <c r="G42">
-        <v>0.105605169825205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.001239138227377114</v>
+      </c>
+      <c r="H42">
+        <v>-0.001194513144782527</v>
+      </c>
+      <c r="I42">
+        <v>0.04892509269903806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005611184744785904</v>
+        <v>-0.007040354183643737</v>
       </c>
       <c r="C43">
-        <v>0.02292625380612464</v>
+        <v>-0.01439534042718879</v>
       </c>
       <c r="D43">
-        <v>0.01769967277788705</v>
+        <v>-0.002686103976112569</v>
       </c>
       <c r="E43">
-        <v>0.03416722374801299</v>
+        <v>-0.01112506858831724</v>
       </c>
       <c r="F43">
-        <v>-0.0178738720048731</v>
+        <v>0.02812927760401226</v>
       </c>
       <c r="G43">
-        <v>0.01258379272188524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02044758727893934</v>
+      </c>
+      <c r="H43">
+        <v>-0.03015574970831896</v>
+      </c>
+      <c r="I43">
+        <v>0.01577100234674144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03988271927909555</v>
+        <v>-0.02796307427954937</v>
       </c>
       <c r="C44">
-        <v>0.05373018697775954</v>
+        <v>-0.04266681639463733</v>
       </c>
       <c r="D44">
-        <v>0.01848445312973818</v>
+        <v>0.00150399525885372</v>
       </c>
       <c r="E44">
-        <v>0.1257374826091098</v>
+        <v>-0.01284484635885965</v>
       </c>
       <c r="F44">
-        <v>-0.07638028266889527</v>
+        <v>0.1214857327090411</v>
       </c>
       <c r="G44">
-        <v>-0.03558902109675674</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06157290606945177</v>
+      </c>
+      <c r="H44">
+        <v>-0.09937364161813593</v>
+      </c>
+      <c r="I44">
+        <v>0.02771953601485529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02869634795482766</v>
+        <v>-0.02505150583381374</v>
       </c>
       <c r="C46">
-        <v>0.02771694056458936</v>
+        <v>-0.03384781240472806</v>
       </c>
       <c r="D46">
-        <v>0.03278220790070353</v>
+        <v>-0.003175951204751338</v>
       </c>
       <c r="E46">
-        <v>0.03321481806979242</v>
+        <v>-0.03161364452886094</v>
       </c>
       <c r="F46">
-        <v>-0.03240788883683399</v>
+        <v>0.04941249632390321</v>
       </c>
       <c r="G46">
-        <v>-0.0002079937538378401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02345201552646426</v>
+      </c>
+      <c r="H46">
+        <v>-0.05448690329979373</v>
+      </c>
+      <c r="I46">
+        <v>0.0006410206883385813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08940674965457603</v>
+        <v>-0.09005084640799113</v>
       </c>
       <c r="C47">
-        <v>0.01332506542371408</v>
+        <v>-0.01768420728558479</v>
       </c>
       <c r="D47">
-        <v>0.01749003042410215</v>
+        <v>-0.006128298737339826</v>
       </c>
       <c r="E47">
-        <v>-0.02072972081386212</v>
+        <v>-0.02571606608605283</v>
       </c>
       <c r="F47">
-        <v>-0.02265847861541361</v>
+        <v>-0.01012590154508212</v>
       </c>
       <c r="G47">
-        <v>0.01134389698872706</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03939312206226128</v>
+      </c>
+      <c r="H47">
+        <v>-0.05585221769958831</v>
+      </c>
+      <c r="I47">
+        <v>0.02159782539363985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0192250457947639</v>
+        <v>-0.0200944267979892</v>
       </c>
       <c r="C48">
-        <v>0.0251519016821192</v>
+        <v>-0.01994875682893186</v>
       </c>
       <c r="D48">
-        <v>0.01635928109224907</v>
+        <v>0.001080649000273724</v>
       </c>
       <c r="E48">
-        <v>0.02910412898588147</v>
+        <v>-0.01512899605406067</v>
       </c>
       <c r="F48">
-        <v>-0.008927230025208784</v>
+        <v>0.02792094048938972</v>
       </c>
       <c r="G48">
-        <v>0.001022862411007367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01652854865395788</v>
+      </c>
+      <c r="H48">
+        <v>-0.02128464787025565</v>
+      </c>
+      <c r="I48">
+        <v>0.01392242448926681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09166025583549427</v>
+        <v>-0.08932684837686883</v>
       </c>
       <c r="C50">
-        <v>0.03362781557317517</v>
+        <v>-0.0347761751019676</v>
       </c>
       <c r="D50">
-        <v>0.02620430909426659</v>
+        <v>0.009186426680916879</v>
       </c>
       <c r="E50">
-        <v>-0.01672457098182737</v>
+        <v>-0.02660795030818476</v>
       </c>
       <c r="F50">
-        <v>-0.03381709486005264</v>
+        <v>-0.004232464360640442</v>
       </c>
       <c r="G50">
-        <v>0.0371419811953235</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0001349569564689582</v>
+      </c>
+      <c r="H50">
+        <v>-0.03734956808859241</v>
+      </c>
+      <c r="I50">
+        <v>-0.003187737729945388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05420546662299469</v>
+        <v>-0.0393728755318499</v>
       </c>
       <c r="C51">
-        <v>-0.01837005343043947</v>
+        <v>0.006812825765733049</v>
       </c>
       <c r="D51">
-        <v>-0.0005279805120091745</v>
+        <v>-0.01254128527569873</v>
       </c>
       <c r="E51">
-        <v>0.08080687271489129</v>
+        <v>-0.008831246298288895</v>
       </c>
       <c r="F51">
-        <v>-0.06901324428284882</v>
+        <v>0.09697648195800958</v>
       </c>
       <c r="G51">
-        <v>0.0008587481299613529</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05524299451350584</v>
+      </c>
+      <c r="H51">
+        <v>-0.05344383297261728</v>
+      </c>
+      <c r="I51">
+        <v>0.0204906093262037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1405664562818373</v>
+        <v>-0.1258415497357353</v>
       </c>
       <c r="C53">
-        <v>0.01675935167194532</v>
+        <v>-0.03568415948396299</v>
       </c>
       <c r="D53">
-        <v>0.0512217581185884</v>
+        <v>-0.007398811968646687</v>
       </c>
       <c r="E53">
-        <v>-0.04806641439514032</v>
+        <v>-0.05500397171046674</v>
       </c>
       <c r="F53">
-        <v>-0.02395543075137417</v>
+        <v>-0.04313772048469867</v>
       </c>
       <c r="G53">
-        <v>0.02652883634513878</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02302847362334881</v>
+      </c>
+      <c r="H53">
+        <v>0.002497405098889063</v>
+      </c>
+      <c r="I53">
+        <v>0.04145012434568098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02582258884098746</v>
+        <v>-0.02562233821899502</v>
       </c>
       <c r="C54">
-        <v>0.005368903489614259</v>
+        <v>-0.001890823723277779</v>
       </c>
       <c r="D54">
-        <v>0.02380583655921341</v>
+        <v>0.004671601355896999</v>
       </c>
       <c r="E54">
-        <v>0.03581188689660667</v>
+        <v>-0.02639664382664421</v>
       </c>
       <c r="F54">
-        <v>-0.04034249227931937</v>
+        <v>0.03530656583861338</v>
       </c>
       <c r="G54">
-        <v>-0.02385458296368537</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04983290221237246</v>
+      </c>
+      <c r="H54">
+        <v>-0.04409016014308523</v>
+      </c>
+      <c r="I54">
+        <v>0.02825320349572019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.10409741641962</v>
+        <v>-0.09966597723980247</v>
       </c>
       <c r="C55">
-        <v>0.004195895396739409</v>
+        <v>-0.02823701718110242</v>
       </c>
       <c r="D55">
-        <v>0.03578407710421239</v>
+        <v>0.01068877009770807</v>
       </c>
       <c r="E55">
-        <v>-0.0164767586469631</v>
+        <v>-0.03578908273370313</v>
       </c>
       <c r="F55">
-        <v>0.03795594770737914</v>
+        <v>-0.02939161222891777</v>
       </c>
       <c r="G55">
-        <v>0.02254349685976752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009065401083904316</v>
+      </c>
+      <c r="H55">
+        <v>-0.009678143705041874</v>
+      </c>
+      <c r="I55">
+        <v>0.01796774258461758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1761874462602812</v>
+        <v>-0.1668827602073021</v>
       </c>
       <c r="C56">
-        <v>-0.01374784911629072</v>
+        <v>-0.014108869843181</v>
       </c>
       <c r="D56">
-        <v>0.08965377498020453</v>
+        <v>-0.0007075744936047072</v>
       </c>
       <c r="E56">
-        <v>-0.09791028122228354</v>
+        <v>-0.08424491482517377</v>
       </c>
       <c r="F56">
-        <v>0.05297434162834218</v>
+        <v>-0.08770273687928691</v>
       </c>
       <c r="G56">
-        <v>0.05820265068108672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02594845034549456</v>
+      </c>
+      <c r="H56">
+        <v>0.04166461216911673</v>
+      </c>
+      <c r="I56">
+        <v>0.04127152120858405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.0874038813655599</v>
+        <v>-0.0651607841571894</v>
       </c>
       <c r="C57">
-        <v>0.03315856883419217</v>
+        <v>-0.03482906762824725</v>
       </c>
       <c r="D57">
-        <v>0.03196220476692362</v>
+        <v>-0.01773165486545315</v>
       </c>
       <c r="E57">
-        <v>0.04465695255303739</v>
+        <v>-0.009206175934319093</v>
       </c>
       <c r="F57">
-        <v>-0.05215829491737359</v>
+        <v>0.06666252952951736</v>
       </c>
       <c r="G57">
-        <v>0.01338181678426001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02584603808872123</v>
+      </c>
+      <c r="H57">
+        <v>-0.03343292431513823</v>
+      </c>
+      <c r="I57">
+        <v>-0.004743616680671092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1863344115014271</v>
+        <v>-0.205850485330774</v>
       </c>
       <c r="C58">
-        <v>0.03375527720959083</v>
+        <v>-0.09029539579957033</v>
       </c>
       <c r="D58">
-        <v>-0.02244811025125685</v>
+        <v>-0.08960722446275692</v>
       </c>
       <c r="E58">
-        <v>0.1271338976890372</v>
+        <v>0.003168576993930389</v>
       </c>
       <c r="F58">
-        <v>0.02765116826407443</v>
+        <v>0.2500789332198864</v>
       </c>
       <c r="G58">
-        <v>0.07445920388139905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1912209279703754</v>
+      </c>
+      <c r="H58">
+        <v>-0.3763641161043625</v>
+      </c>
+      <c r="I58">
+        <v>-0.2140017607910859</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02374685522338304</v>
+        <v>-0.05150637475651546</v>
       </c>
       <c r="C59">
-        <v>-0.1958534353657314</v>
+        <v>0.1947661275640552</v>
       </c>
       <c r="D59">
-        <v>-0.006242235132692239</v>
+        <v>-0.01836963060936416</v>
       </c>
       <c r="E59">
-        <v>0.06549702100953791</v>
+        <v>0.02256638186959842</v>
       </c>
       <c r="F59">
-        <v>-0.01068302535799944</v>
+        <v>0.07202489102206872</v>
       </c>
       <c r="G59">
-        <v>-0.009838108410110449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.007247768465577134</v>
+      </c>
+      <c r="H59">
+        <v>0.02906411869742886</v>
+      </c>
+      <c r="I59">
+        <v>0.0603112921725712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1909443000646095</v>
+        <v>-0.1876458751708787</v>
       </c>
       <c r="C60">
-        <v>-0.0861205307798612</v>
+        <v>0.04198593766174704</v>
       </c>
       <c r="D60">
-        <v>0.00998405499451218</v>
+        <v>-0.04895363020432027</v>
       </c>
       <c r="E60">
-        <v>0.193460903350405</v>
+        <v>-0.006114628346258802</v>
       </c>
       <c r="F60">
-        <v>-0.04024736583707458</v>
+        <v>0.2077055425322549</v>
       </c>
       <c r="G60">
-        <v>-0.02988753515721328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05477918740703827</v>
+      </c>
+      <c r="H60">
+        <v>0.2818762416320604</v>
+      </c>
+      <c r="I60">
+        <v>-0.09571146370344347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04433616787301794</v>
+        <v>-0.03710809351993968</v>
       </c>
       <c r="C61">
-        <v>0.01411476141064202</v>
+        <v>-0.02890921898885654</v>
       </c>
       <c r="D61">
-        <v>0.001465055031180352</v>
+        <v>0.0005096605388823093</v>
       </c>
       <c r="E61">
-        <v>0.0372835154573743</v>
+        <v>-0.008655004703924973</v>
       </c>
       <c r="F61">
-        <v>-0.002295022602130191</v>
+        <v>0.03781956402623157</v>
       </c>
       <c r="G61">
-        <v>-0.00819806190330959</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01119969151242503</v>
+      </c>
+      <c r="H61">
+        <v>0.005611262856915405</v>
+      </c>
+      <c r="I61">
+        <v>-0.03794225548013241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04382271774136309</v>
+        <v>-0.03132635903110395</v>
       </c>
       <c r="C63">
-        <v>0.01519971985129057</v>
+        <v>-0.02035182784608129</v>
       </c>
       <c r="D63">
-        <v>0.01782159798668611</v>
+        <v>-0.001849702866173587</v>
       </c>
       <c r="E63">
-        <v>0.04002115777872765</v>
+        <v>-0.01522248494363429</v>
       </c>
       <c r="F63">
-        <v>-0.01908474332031664</v>
+        <v>0.02915429216715563</v>
       </c>
       <c r="G63">
-        <v>0.009188927471323945</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01007009425729655</v>
+      </c>
+      <c r="H63">
+        <v>-0.04974253997150718</v>
+      </c>
+      <c r="I63">
+        <v>0.03561475445596165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07346314432308065</v>
+        <v>-0.0575431436090573</v>
       </c>
       <c r="C64">
-        <v>0.05682367030193827</v>
+        <v>-0.04629532271626889</v>
       </c>
       <c r="D64">
-        <v>0.05946815637785825</v>
+        <v>0.01422041105909561</v>
       </c>
       <c r="E64">
-        <v>0.05099963131179774</v>
+        <v>-0.04575183397287742</v>
       </c>
       <c r="F64">
-        <v>-0.01611401174984155</v>
+        <v>0.04988260612070481</v>
       </c>
       <c r="G64">
-        <v>-0.06655408854280249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05769093785595785</v>
+      </c>
+      <c r="H64">
+        <v>0.006638274259586244</v>
+      </c>
+      <c r="I64">
+        <v>0.03631324721567297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.0200947876307718</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01347389844482567</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.006453276831827392</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006324577163247963</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0002796633270058208</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0210143972312903</v>
+      </c>
+      <c r="H65">
+        <v>0.003690465814818704</v>
+      </c>
+      <c r="I65">
+        <v>-0.01499243820330617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0870186811074276</v>
+        <v>-0.06690479922603053</v>
       </c>
       <c r="C66">
-        <v>0.03965338133684496</v>
+        <v>-0.05583027196946769</v>
       </c>
       <c r="D66">
-        <v>0.03987527109523097</v>
+        <v>-0.01385962661556551</v>
       </c>
       <c r="E66">
-        <v>0.07871384089240401</v>
+        <v>-0.04995469171857126</v>
       </c>
       <c r="F66">
-        <v>-0.02605643763435228</v>
+        <v>0.06891468788408953</v>
       </c>
       <c r="G66">
-        <v>-0.01872866230509963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01433723703084966</v>
+      </c>
+      <c r="H66">
+        <v>7.653885773729492e-06</v>
+      </c>
+      <c r="I66">
+        <v>-0.03131269839980127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05968998483950058</v>
+        <v>-0.04709843483890609</v>
       </c>
       <c r="C67">
-        <v>-0.008688975693329047</v>
+        <v>0.003465498890307718</v>
       </c>
       <c r="D67">
-        <v>0.01732362807305015</v>
+        <v>-0.001927574156040629</v>
       </c>
       <c r="E67">
-        <v>0.01864139706407588</v>
+        <v>-0.01003644191589284</v>
       </c>
       <c r="F67">
-        <v>0.01307353025091492</v>
+        <v>0.03636495271949318</v>
       </c>
       <c r="G67">
-        <v>-0.01854260901794297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03455411505135374</v>
+      </c>
+      <c r="H67">
+        <v>0.004512189030884043</v>
+      </c>
+      <c r="I67">
+        <v>-0.03787850024906425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03434610501007775</v>
+        <v>-0.05984756129518637</v>
       </c>
       <c r="C68">
-        <v>-0.2455913013552149</v>
+        <v>0.233556121815441</v>
       </c>
       <c r="D68">
-        <v>-0.02481290401059388</v>
+        <v>-0.01800237271648985</v>
       </c>
       <c r="E68">
-        <v>0.05227114614947486</v>
+        <v>0.04003450624356371</v>
       </c>
       <c r="F68">
-        <v>-0.02916221833595117</v>
+        <v>0.05689980701565618</v>
       </c>
       <c r="G68">
-        <v>0.01149350159164643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.001646269425722209</v>
+      </c>
+      <c r="H68">
+        <v>0.01852584256435089</v>
+      </c>
+      <c r="I68">
+        <v>0.1595243871857484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07111475065887066</v>
+        <v>-0.0718367958487002</v>
       </c>
       <c r="C69">
-        <v>0.01780651725312972</v>
+        <v>-0.01992621446039345</v>
       </c>
       <c r="D69">
-        <v>0.02525016799187689</v>
+        <v>-0.006589348416660899</v>
       </c>
       <c r="E69">
-        <v>-0.01484623953571894</v>
+        <v>-0.0314819337061747</v>
       </c>
       <c r="F69">
-        <v>-0.02011104854523605</v>
+        <v>-0.0005615439060944135</v>
       </c>
       <c r="G69">
-        <v>0.02053721991824956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02298043551626026</v>
+      </c>
+      <c r="H69">
+        <v>-0.02956832914399184</v>
+      </c>
+      <c r="I69">
+        <v>-0.003238044782316673</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02635606084047739</v>
+        <v>-0.05748189954859708</v>
       </c>
       <c r="C71">
-        <v>-0.2782740665669549</v>
+        <v>0.2483105358607235</v>
       </c>
       <c r="D71">
-        <v>-0.03607008358449925</v>
+        <v>-0.02216812479015489</v>
       </c>
       <c r="E71">
-        <v>0.08402141213840909</v>
+        <v>0.0650596377318093</v>
       </c>
       <c r="F71">
-        <v>-0.03302054655665047</v>
+        <v>0.07737718748266748</v>
       </c>
       <c r="G71">
-        <v>0.007467154380673363</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01963799923101628</v>
+      </c>
+      <c r="H71">
+        <v>0.0281971566782157</v>
+      </c>
+      <c r="I71">
+        <v>0.1327026604111052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1226116338483766</v>
+        <v>-0.1231438829104468</v>
       </c>
       <c r="C72">
-        <v>-0.001519418870565101</v>
+        <v>-0.03246373428369074</v>
       </c>
       <c r="D72">
-        <v>0.0456659041056802</v>
+        <v>-0.006851918716108172</v>
       </c>
       <c r="E72">
-        <v>0.08607893374884185</v>
+        <v>-0.06356234159748349</v>
       </c>
       <c r="F72">
-        <v>0.02407938886060585</v>
+        <v>0.08808709293286922</v>
       </c>
       <c r="G72">
-        <v>0.0181331579268008</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04198644585536303</v>
+      </c>
+      <c r="H72">
+        <v>0.01736274325351157</v>
+      </c>
+      <c r="I72">
+        <v>-0.0948960348945581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2926535848679266</v>
+        <v>-0.2682824611865428</v>
       </c>
       <c r="C73">
-        <v>-0.1622516692731271</v>
+        <v>0.06342912833724042</v>
       </c>
       <c r="D73">
-        <v>-0.05363913915502453</v>
+        <v>-0.08843924030052877</v>
       </c>
       <c r="E73">
-        <v>0.3417411682952508</v>
+        <v>0.03842876471139069</v>
       </c>
       <c r="F73">
-        <v>0.007740104194436623</v>
+        <v>0.3106009491371189</v>
       </c>
       <c r="G73">
-        <v>-0.06176949057597463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.151112243033116</v>
+      </c>
+      <c r="H73">
+        <v>0.4826806416122031</v>
+      </c>
+      <c r="I73">
+        <v>-0.2840216483073084</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1604028868077663</v>
+        <v>-0.1500994768456039</v>
       </c>
       <c r="C74">
-        <v>0.0117502274103732</v>
+        <v>-0.03035702321422159</v>
       </c>
       <c r="D74">
-        <v>0.04581637361756436</v>
+        <v>-0.01296011704185994</v>
       </c>
       <c r="E74">
-        <v>-0.03635298030351143</v>
+        <v>-0.04982446574527906</v>
       </c>
       <c r="F74">
-        <v>0.01333102958485994</v>
+        <v>-0.05912201971816531</v>
       </c>
       <c r="G74">
-        <v>0.0824355607011258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02159391170170322</v>
+      </c>
+      <c r="H74">
+        <v>0.02884164480726061</v>
+      </c>
+      <c r="I74">
+        <v>0.02084790236678392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2343677247840238</v>
+        <v>-0.2432070418409084</v>
       </c>
       <c r="C75">
-        <v>0.008548703815758455</v>
+        <v>-0.02753526824751194</v>
       </c>
       <c r="D75">
-        <v>0.07996754899527726</v>
+        <v>-0.02951847674521831</v>
       </c>
       <c r="E75">
-        <v>-0.1280368587466435</v>
+        <v>-0.1096508713938283</v>
       </c>
       <c r="F75">
-        <v>-0.01454023803599149</v>
+        <v>-0.142589004421372</v>
       </c>
       <c r="G75">
-        <v>0.05118061074992377</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005145567329025</v>
+      </c>
+      <c r="H75">
+        <v>0.02208338213935013</v>
+      </c>
+      <c r="I75">
+        <v>0.08048198499985855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2482598793539257</v>
+        <v>-0.2646812842259283</v>
       </c>
       <c r="C76">
-        <v>-0.01359799698300052</v>
+        <v>-0.01248371572070563</v>
       </c>
       <c r="D76">
-        <v>0.1161858558851185</v>
+        <v>0.0100989990711582</v>
       </c>
       <c r="E76">
-        <v>-0.1280278288736305</v>
+        <v>-0.1357520020234822</v>
       </c>
       <c r="F76">
-        <v>0.03499007341793919</v>
+        <v>-0.1817702259455206</v>
       </c>
       <c r="G76">
-        <v>0.08334074719890591</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.06041970253140706</v>
+      </c>
+      <c r="H76">
+        <v>0.04488477785555776</v>
+      </c>
+      <c r="I76">
+        <v>0.04733638119871756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1345470518383325</v>
+        <v>-0.1238835187508952</v>
       </c>
       <c r="C77">
-        <v>0.06738625397975961</v>
+        <v>-0.07591938516689754</v>
       </c>
       <c r="D77">
-        <v>-0.02916290819856667</v>
+        <v>-0.006748287065790641</v>
       </c>
       <c r="E77">
-        <v>0.1467712084058262</v>
+        <v>0.02892963977811318</v>
       </c>
       <c r="F77">
-        <v>0.007424283593184129</v>
+        <v>0.1580050256555906</v>
       </c>
       <c r="G77">
-        <v>-0.053508061139527</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.008699905103464068</v>
+      </c>
+      <c r="H77">
+        <v>-0.2077765256308715</v>
+      </c>
+      <c r="I77">
+        <v>0.2563671673186369</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08491064187503308</v>
+        <v>-0.07367582260472898</v>
       </c>
       <c r="C78">
-        <v>0.05663315634539368</v>
+        <v>-0.07698274185144932</v>
       </c>
       <c r="D78">
-        <v>-0.007735481143845087</v>
+        <v>0.005854925153965697</v>
       </c>
       <c r="E78">
-        <v>0.05121789731619888</v>
+        <v>-0.01532708807919165</v>
       </c>
       <c r="F78">
-        <v>-0.01318010274960132</v>
+        <v>0.07407096457626032</v>
       </c>
       <c r="G78">
-        <v>0.00583693274232251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.009752349980470774</v>
+      </c>
+      <c r="H78">
+        <v>-0.02411058820760397</v>
+      </c>
+      <c r="I78">
+        <v>0.02905455933728689</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05822647578575135</v>
+        <v>-0.1388616139280883</v>
       </c>
       <c r="C80">
-        <v>0.02660636834686889</v>
+        <v>0.03924538944432227</v>
       </c>
       <c r="D80">
-        <v>-0.0869447845481109</v>
+        <v>0.9746070431003593</v>
       </c>
       <c r="E80">
-        <v>-0.06171640094266501</v>
+        <v>0.05109022679899247</v>
       </c>
       <c r="F80">
-        <v>0.7729025043213062</v>
+        <v>0.04409768373869447</v>
       </c>
       <c r="G80">
-        <v>-0.5725273075911211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04672447647466153</v>
+      </c>
+      <c r="H80">
+        <v>0.04839440049207415</v>
+      </c>
+      <c r="I80">
+        <v>-0.03756123663870017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1638105945524102</v>
+        <v>-0.1792922250929609</v>
       </c>
       <c r="C81">
-        <v>-0.006271256086402545</v>
+        <v>-0.004998127442194143</v>
       </c>
       <c r="D81">
-        <v>0.06124690465218954</v>
+        <v>-0.007764226446017969</v>
       </c>
       <c r="E81">
-        <v>-0.164276375049258</v>
+        <v>-0.08263515734098377</v>
       </c>
       <c r="F81">
-        <v>0.01959660105050934</v>
+        <v>-0.156503597245314</v>
       </c>
       <c r="G81">
-        <v>0.08852454201122485</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02862419698067414</v>
+      </c>
+      <c r="H81">
+        <v>0.007205484678888764</v>
+      </c>
+      <c r="I81">
+        <v>0.05220648938359374</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09142761315735222</v>
+        <v>-0.06914507764843592</v>
       </c>
       <c r="C83">
-        <v>0.07233873571384351</v>
+        <v>-0.05594112416458302</v>
       </c>
       <c r="D83">
-        <v>-0.05662424940164729</v>
+        <v>-0.0141152816084275</v>
       </c>
       <c r="E83">
-        <v>0.01731120667194506</v>
+        <v>0.03262987224108425</v>
       </c>
       <c r="F83">
-        <v>-0.0646181860033162</v>
+        <v>0.04678314575647368</v>
       </c>
       <c r="G83">
-        <v>-0.02618015034281693</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05908571952837403</v>
+      </c>
+      <c r="H83">
+        <v>-0.03617980639258118</v>
+      </c>
+      <c r="I83">
+        <v>0.02431740685220838</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2383125771537224</v>
+        <v>-0.2514187230744689</v>
       </c>
       <c r="C85">
-        <v>0.06297954700146305</v>
+        <v>-0.05671403944067084</v>
       </c>
       <c r="D85">
-        <v>0.0788472658605484</v>
+        <v>-0.008259236693092477</v>
       </c>
       <c r="E85">
-        <v>-0.1607501037084265</v>
+        <v>-0.1075493242823347</v>
       </c>
       <c r="F85">
-        <v>0.04496522683214583</v>
+        <v>-0.1886332775361113</v>
       </c>
       <c r="G85">
-        <v>0.07631397255105368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02724148529076802</v>
+      </c>
+      <c r="H85">
+        <v>-0.0222038522608225</v>
+      </c>
+      <c r="I85">
+        <v>0.05710025492323166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04161192696319295</v>
+        <v>-0.02262717729092597</v>
       </c>
       <c r="C86">
-        <v>0.05729125534244153</v>
+        <v>-0.05555058824005269</v>
       </c>
       <c r="D86">
-        <v>0.02219663217871887</v>
+        <v>-0.0008060015860799377</v>
       </c>
       <c r="E86">
-        <v>0.06108003413060121</v>
+        <v>-0.01840803520662397</v>
       </c>
       <c r="F86">
-        <v>0.002467263482365343</v>
+        <v>0.07552758386277288</v>
       </c>
       <c r="G86">
-        <v>0.01779980256264391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.002374666797058693</v>
+      </c>
+      <c r="H86">
+        <v>-0.07565233824721851</v>
+      </c>
+      <c r="I86">
+        <v>0.02690822475488975</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02841276570341391</v>
+        <v>-0.03170890218928313</v>
       </c>
       <c r="C87">
-        <v>-0.05432231243131173</v>
+        <v>0.009478195336280132</v>
       </c>
       <c r="D87">
-        <v>-0.00343984580103</v>
+        <v>-0.001495045231086676</v>
       </c>
       <c r="E87">
-        <v>0.09470767499049507</v>
+        <v>-0.002529033404605135</v>
       </c>
       <c r="F87">
-        <v>0.01161090438228463</v>
+        <v>0.09985537358469666</v>
       </c>
       <c r="G87">
-        <v>0.01541669588715789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02109478444523125</v>
+      </c>
+      <c r="H87">
+        <v>-0.01152812803129748</v>
+      </c>
+      <c r="I87">
+        <v>-0.009994552878053471</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03821533894740375</v>
+        <v>-0.03038527876644047</v>
       </c>
       <c r="C88">
-        <v>0.02559339413871132</v>
+        <v>-0.01484849450475709</v>
       </c>
       <c r="D88">
-        <v>0.008113421177846263</v>
+        <v>0.00909033403344844</v>
       </c>
       <c r="E88">
-        <v>-0.01191802958631603</v>
+        <v>-0.009436687101065287</v>
       </c>
       <c r="F88">
-        <v>-0.004338353133019009</v>
+        <v>-0.01229802843965229</v>
       </c>
       <c r="G88">
-        <v>-0.002945938203109007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04619585087118674</v>
+      </c>
+      <c r="H88">
+        <v>-0.03324453738541872</v>
+      </c>
+      <c r="I88">
+        <v>-0.02084685897671573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0371257579200561</v>
+        <v>-0.09515102246380189</v>
       </c>
       <c r="C89">
-        <v>-0.3821761465424995</v>
+        <v>0.380230699690359</v>
       </c>
       <c r="D89">
-        <v>-0.1009061894263272</v>
+        <v>-0.04699671075061659</v>
       </c>
       <c r="E89">
-        <v>0.003986550986946448</v>
+        <v>0.08938273801792716</v>
       </c>
       <c r="F89">
-        <v>-0.03713598668320145</v>
+        <v>0.03552499682901334</v>
       </c>
       <c r="G89">
-        <v>-0.004509867802240933</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0408200677547505</v>
+      </c>
+      <c r="H89">
+        <v>-0.04804371758991826</v>
+      </c>
+      <c r="I89">
+        <v>0.2500541651496612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02991052836127547</v>
+        <v>-0.06455709931696287</v>
       </c>
       <c r="C90">
-        <v>-0.299819077796276</v>
+        <v>0.3232421322691063</v>
       </c>
       <c r="D90">
-        <v>-0.05660793609423008</v>
+        <v>-0.02118403342882722</v>
       </c>
       <c r="E90">
-        <v>0.05155822385902892</v>
+        <v>0.07302664111632677</v>
       </c>
       <c r="F90">
-        <v>-0.04585821751292402</v>
+        <v>0.03554759286090842</v>
       </c>
       <c r="G90">
-        <v>-0.00844169531287905</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02785769001926902</v>
+      </c>
+      <c r="H90">
+        <v>-0.002838075803123633</v>
+      </c>
+      <c r="I90">
+        <v>0.2148770972825082</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2773124398536479</v>
+        <v>-0.2910149630813699</v>
       </c>
       <c r="C91">
-        <v>0.04073130820550385</v>
+        <v>-0.04730383898299975</v>
       </c>
       <c r="D91">
-        <v>0.0800212805698971</v>
+        <v>-0.01715210404826037</v>
       </c>
       <c r="E91">
-        <v>-0.2715178181915401</v>
+        <v>-0.0986103700355363</v>
       </c>
       <c r="F91">
-        <v>0.04794274232469403</v>
+        <v>-0.274763895072769</v>
       </c>
       <c r="G91">
-        <v>0.04416722799567388</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02769515466419632</v>
+      </c>
+      <c r="H91">
+        <v>0.009965666181973473</v>
+      </c>
+      <c r="I91">
+        <v>0.09030804385912305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07244064495892096</v>
+        <v>-0.1263416038294442</v>
       </c>
       <c r="C92">
-        <v>-0.4062428475317333</v>
+        <v>0.4185701498322868</v>
       </c>
       <c r="D92">
-        <v>-0.1716016312290244</v>
+        <v>-0.004471233955211137</v>
       </c>
       <c r="E92">
-        <v>-0.0952483391038708</v>
+        <v>0.1169007783858623</v>
       </c>
       <c r="F92">
-        <v>0.09006184180934541</v>
+        <v>-0.1077093097708925</v>
       </c>
       <c r="G92">
-        <v>-0.02005820309164004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.06468801328173125</v>
+      </c>
+      <c r="H92">
+        <v>-0.4412564211943595</v>
+      </c>
+      <c r="I92">
+        <v>-0.6458661159080119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.02136272200024264</v>
+        <v>-0.07555204748880044</v>
       </c>
       <c r="C93">
-        <v>-0.3667917691530727</v>
+        <v>0.3885031733473186</v>
       </c>
       <c r="D93">
-        <v>-0.08499095718539255</v>
+        <v>-0.03971367159032784</v>
       </c>
       <c r="E93">
-        <v>-0.02275341851821894</v>
+        <v>0.1138274492470222</v>
       </c>
       <c r="F93">
-        <v>0.009773607814617653</v>
+        <v>0.006959953323176367</v>
       </c>
       <c r="G93">
-        <v>-0.02888136336141936</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0400813198672415</v>
+      </c>
+      <c r="H93">
+        <v>0.02468144229691052</v>
+      </c>
+      <c r="I93">
+        <v>0.1495101426581468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.274840810142563</v>
+        <v>-0.309804681475136</v>
       </c>
       <c r="C94">
-        <v>-0.09093207518715662</v>
+        <v>0.03924896061542919</v>
       </c>
       <c r="D94">
-        <v>0.05026010359708748</v>
+        <v>-0.04281610846848741</v>
       </c>
       <c r="E94">
-        <v>-0.3687951189224104</v>
+        <v>-0.1269003503521549</v>
       </c>
       <c r="F94">
-        <v>0.2042183980332886</v>
+        <v>-0.3367731463579662</v>
       </c>
       <c r="G94">
-        <v>0.3352821061561231</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2142540576829742</v>
+      </c>
+      <c r="H94">
+        <v>-0.1181008845400584</v>
+      </c>
+      <c r="I94">
+        <v>0.02087966042213524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1873569977524903</v>
+        <v>-0.1368188743081506</v>
       </c>
       <c r="C95">
-        <v>0.002380062904975355</v>
+        <v>-0.04840488604420895</v>
       </c>
       <c r="D95">
-        <v>0.02157911516857174</v>
+        <v>-0.09519827149387461</v>
       </c>
       <c r="E95">
-        <v>-0.3521401988507196</v>
+        <v>-0.04343446850544915</v>
       </c>
       <c r="F95">
-        <v>-0.5308329956477165</v>
+        <v>-0.09244925802533326</v>
       </c>
       <c r="G95">
-        <v>-0.6777319898656742</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8971677599172192</v>
+      </c>
+      <c r="H95">
+        <v>0.1230869017415048</v>
+      </c>
+      <c r="I95">
+        <v>-0.1275632288518718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2229955908151557</v>
+        <v>-0.207896144050194</v>
       </c>
       <c r="C98">
-        <v>-0.1024274230488333</v>
+        <v>0.0523133614105134</v>
       </c>
       <c r="D98">
-        <v>-0.02814448887243368</v>
+        <v>-0.06231934460512174</v>
       </c>
       <c r="E98">
-        <v>0.1006197257959727</v>
+        <v>0.03111185033224908</v>
       </c>
       <c r="F98">
-        <v>-0.05315522454463822</v>
+        <v>0.1644400324855512</v>
       </c>
       <c r="G98">
-        <v>-0.01614658459720734</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06758749699016453</v>
+      </c>
+      <c r="H98">
+        <v>0.3231119598626941</v>
+      </c>
+      <c r="I98">
+        <v>-0.1616884012025468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02373969498768949</v>
+        <v>-0.01775717401147075</v>
       </c>
       <c r="C101">
-        <v>0.02506788949749662</v>
+        <v>-0.02733199572875573</v>
       </c>
       <c r="D101">
-        <v>0.02982652956447486</v>
+        <v>0.004453838661346509</v>
       </c>
       <c r="E101">
-        <v>0.03235564182262905</v>
+        <v>-0.03542714581086602</v>
       </c>
       <c r="F101">
-        <v>-0.01589950066673717</v>
+        <v>0.06568917817101719</v>
       </c>
       <c r="G101">
-        <v>0.002311195900459347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01090570970459982</v>
+      </c>
+      <c r="H101">
+        <v>-0.1134982850730139</v>
+      </c>
+      <c r="I101">
+        <v>-0.05697676055138384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1116838392908201</v>
+        <v>-0.1219464382005114</v>
       </c>
       <c r="C102">
-        <v>0.02609085654469205</v>
+        <v>-0.02391120592989269</v>
       </c>
       <c r="D102">
-        <v>0.04419977242539038</v>
+        <v>0.002960198292108329</v>
       </c>
       <c r="E102">
-        <v>-0.0943242504435427</v>
+        <v>-0.05592031309646023</v>
       </c>
       <c r="F102">
-        <v>0.0191666260432973</v>
+        <v>-0.1046080481036094</v>
       </c>
       <c r="G102">
-        <v>-0.001563092559990794</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.009498918819310889</v>
+      </c>
+      <c r="H102">
+        <v>0.01269579320184878</v>
+      </c>
+      <c r="I102">
+        <v>0.06054151617134328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02133865161078365</v>
+        <v>-0.0299555007405441</v>
       </c>
       <c r="C103">
-        <v>0.005041716268806366</v>
+        <v>-0.007009144019246872</v>
       </c>
       <c r="D103">
-        <v>0.01080652386203233</v>
+        <v>0.008477006462183011</v>
       </c>
       <c r="E103">
-        <v>-0.03303279691690623</v>
+        <v>-0.02070078716858221</v>
       </c>
       <c r="F103">
-        <v>2.806077367963166e-05</v>
+        <v>-0.02640032565640419</v>
       </c>
       <c r="G103">
-        <v>0.01119760764960568</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01004412035929034</v>
+      </c>
+      <c r="H103">
+        <v>-0.01291631009970824</v>
+      </c>
+      <c r="I103">
+        <v>0.02384009999060345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
